--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -1,47 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIIT\Desktop\discord test\discord test1\discord test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E9506-BC76-489E-A61B-0A9128B052FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auction Results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Auction Results" sheetId="1" r:id="rId1"/>
+    <sheet name="CSK" sheetId="3" r:id="rId2"/>
+    <sheet name="DC" sheetId="4" r:id="rId3"/>
+    <sheet name="GT" sheetId="5" r:id="rId4"/>
+    <sheet name="KKR" sheetId="6" r:id="rId5"/>
+    <sheet name="LSG" sheetId="7" r:id="rId6"/>
+    <sheet name="MI" sheetId="8" r:id="rId7"/>
+    <sheet name="PBKS" sheetId="9" r:id="rId8"/>
+    <sheet name="RR" sheetId="10" r:id="rId9"/>
+    <sheet name="RCB" sheetId="11" r:id="rId10"/>
+    <sheet name="SRH" sheetId="12" r:id="rId11"/>
+    <sheet name="Team Summary" sheetId="2" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Player Name</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Players Bought</t>
+  </si>
+  <si>
+    <t>Total Spent</t>
+  </si>
+  <si>
+    <t>Remaining Purse</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-        <bgColor rgb="00366092"/>
+        <fgColor rgb="FF366092"/>
+        <bgColor rgb="FF366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,83 +101,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,83 +406,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Final Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B95846-ED74-408D-8627-1AB054B66166}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8BAAB2-23FD-4FAF-A49A-57359F3FC4F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Players Bought</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Remaining Purse</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4337A-55A6-43E5-ABD9-1F522452B678}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0342CAE-4F0E-4EAF-8C1E-158F0F47D47C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB55A-B65A-432E-8977-9BE1B4C5984D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4E0CDC-C9A2-42B1-B17E-D5E70AC6A1CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685285F4-2C04-4F9D-A2E3-D83D04C6796D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A88AA67-1A2A-4272-BA54-E1852EBD3AAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E044C890-BF6D-48A6-A3D1-B9053F68D1DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AD9D4-1E84-429D-BB9F-D80243B19D96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -1,90 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIIT\Desktop\discord test\discord test1\discord test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E9506-BC76-489E-A61B-0A9128B052FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Auction Results" sheetId="1" r:id="rId1"/>
-    <sheet name="CSK" sheetId="3" r:id="rId2"/>
-    <sheet name="DC" sheetId="4" r:id="rId3"/>
-    <sheet name="GT" sheetId="5" r:id="rId4"/>
-    <sheet name="KKR" sheetId="6" r:id="rId5"/>
-    <sheet name="LSG" sheetId="7" r:id="rId6"/>
-    <sheet name="MI" sheetId="8" r:id="rId7"/>
-    <sheet name="PBKS" sheetId="9" r:id="rId8"/>
-    <sheet name="RR" sheetId="10" r:id="rId9"/>
-    <sheet name="RCB" sheetId="11" r:id="rId10"/>
-    <sheet name="SRH" sheetId="12" r:id="rId11"/>
-    <sheet name="Team Summary" sheetId="2" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auction Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Player Name</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Final Price</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Players Bought</t>
-  </si>
-  <si>
-    <t>Total Spent</t>
-  </si>
-  <si>
-    <t>Remaining Purse</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF366092"/>
-        <bgColor rgb="FF366092"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,24 +58,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,189 +422,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Final Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Prithvi Shaw</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mayank Agarawal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.1cr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:32:30</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B95846-ED74-408D-8627-1AB054B66166}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8BAAB2-23FD-4FAF-A49A-57359F3FC4F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4337A-55A6-43E5-ABD9-1F522452B678}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0342CAE-4F0E-4EAF-8C1E-158F0F47D47C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB55A-B65A-432E-8977-9BE1B4C5984D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4E0CDC-C9A2-42B1-B17E-D5E70AC6A1CA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685285F4-2C04-4F9D-A2E3-D83D04C6796D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A88AA67-1A2A-4272-BA54-E1852EBD3AAD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E044C890-BF6D-48A6-A3D1-B9053F68D1DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AD9D4-1E84-429D-BB9F-D80243B19D96}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Players Bought</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining Purse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>81.6cr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.4cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>103.2cr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.8cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>112.1cr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.9cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60.7cr</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.3cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>102.05cr</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.95cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>122.25cr</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>113.5cr</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>110.45cr</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.55cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>108.95cr</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.05cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>99.5cr</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.5cr</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -9,6 +9,17 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auction Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unsold Players" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSK" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GT" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KKR" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LSG" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MI" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBKS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RR" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SRH" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,47 +468,147 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Prithvi Shaw</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RCB</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-11-29 13:28:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mayank Agarawal</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RCB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.1cr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-11-29 13:32:30</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
         </is>
       </c>
     </row>
@@ -512,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,203 +653,255 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CSK</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>81.6cr</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.4cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DC</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>103.2cr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.8cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>112.1cr</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.9cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KKR</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>60.7cr</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>64.3cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LSG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>102.05cr</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.95cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>122.25cr</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.75cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PBKS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>113.5cr</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.5cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RCB</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>110.45cr</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.55cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>108.95cr</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.05cr</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SRH</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>99.5cr</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25.5cr</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Set Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Base Price</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
         </is>
       </c>
     </row>

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,8 +41,11 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -53,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,11 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -479,13 +489,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -503,6 +518,405 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arshdeep Singh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Azmatullah Omarzai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Harnoor Pannu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Harpreet Brar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lockie Ferguson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Marco Jansen</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marcus Stoinis</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mitch Owen</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Musheer Khan</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nehal Wadhera</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Prabhsimran Singh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Priyansh Arya</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3.8cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pyla Avinash</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shashank Singh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.5cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shreyas Iyer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26.75cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Suryansh Shedge</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vishnu Vinod</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>95L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Vyshak Vijaykumar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.8cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Xavier Bartlett</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>80L</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Yash Thakur</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.6cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Yuzvendra Chahal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>113.5cr</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -515,13 +929,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -539,6 +958,337 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Abhinandan Singh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bhuvneshwar Kumar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Devdutt Padikkal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jacob Bethell</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jitesh Sharma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Josh Hazlewood</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Krunal Pandya</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.75cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nuwan Thushara</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.6cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Phil Salt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rajat Patidar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rasikh Dar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Romario Shepherd</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Suyash Sharma</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Swapnil Singh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tim David</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Virat Kohli</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>108.6cr</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>16.4cr</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -551,13 +1301,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -575,6 +1330,320 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dhruv Jurel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Donovan Ferreira</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jofra Archer</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kwena Maphaka</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lhuan-Dre Pretorious</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nandre Burger</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3.5cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ravindra Jadeja</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Riyan Parag</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sam Curran</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sandeep Sharma</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shimron Hetmyer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shubham Dubey</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>80L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tushar Deshpande</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6.5cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vaibhav Suryavanshi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.1cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yashaswi Jaiswal</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yudhvir Charak</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>35L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>104.95cr</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>16.05cr</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -587,13 +1656,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -611,6 +1685,303 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Abhishek Sharma</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aniket Verma</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brydon Carse</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eshan Malinga</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.2cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Harsh Dubey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Harshal Patel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Heinrich Klaasen</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ishan Kishan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11.25cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jaydev Unadkat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kamindu Mendis</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nitish Kumar Reddy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pat Cummins</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Smaran Ravichandaran</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Travis Head</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Zeeshan Ansari</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>99.5cr</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>25.5cr</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -623,7 +1994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +2021,206 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Remaining Purse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>79.6cr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.4cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>99.95cr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.8cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>112.1cr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.9cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>54.7cr</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.3cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>102.05cr</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.95cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>122.25cr</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>113.5cr</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>108.6cr</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.4cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>104.95cr</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.05cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>99.5cr</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.5cr</t>
         </is>
       </c>
     </row>
@@ -700,13 +2271,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -724,6 +2300,320 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anshul Kamboj</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.4cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gurjapneet Singh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.2cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jamie Overton</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MS Dhoni</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mukesh Choudhary</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nathan Ellis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ramakrishna Ghosh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sanju Samson</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ruturaj Gaikwad</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shivam Dube</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shreyas Gopal</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Syed Khaleel Ahmed</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.8cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ayush Mhatre</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dewald Brevis</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.2cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Urvil Patel</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>79.6cr</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>43.4cr</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -736,13 +2626,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -760,6 +2655,337 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Abhishek Porel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ajay Mandal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ashutosh Sharma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.8cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Axar Patel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16.5cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dushmantha Chameera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Karun Nair</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KL Rahul</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kuldeep Yadav</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13.25cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Madhav Tiwari</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mitchell Starc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.75cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mukesh Kumar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nitish Rana</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sameer Rizvi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>95L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>T. Natarajan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tripurana Vijay</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tristan Stubbs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vipraj Nigam</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>99.95cr</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>21.8cr</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -772,13 +2998,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -796,6 +3027,388 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anuj Rawat</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Glenn Phillips</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gurnoor Singh Brar</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ishant Sharma</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jayant Yadav</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jos Buttler</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15.75cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kagiso Rabada</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kumar Kushagra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>65L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Manav Suthar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mohammad Siraj</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12.25cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mohd. Arshad Khan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nishant Sindhu</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Prasidh Krishna</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.5cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R. Sai Kishore</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rahul Tewatia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sai Sudharsan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8.5cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shubman Gill</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16.5cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Washington Sundar</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3.2cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>112.1cr</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>12.9cr</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -808,13 +3421,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -832,6 +3450,252 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ajinkya Rahane</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Angkrish Raghuvanshi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anukul Roy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Harshit Rana</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manish Pandey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ramandeep Singh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rinku Singh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rovman Powell</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sunil Narine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Umran Malik</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vaibhav Arora</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.8cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Varun Chakaravarthy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>54.7cr</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>64.3cr</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -844,13 +3708,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -868,6 +3737,371 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Abdul Samad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aiden Markram</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Akash Singh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arjun Tendulkar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arshin Kulkarni</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Avesh Khan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.75cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ayush Badoni</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Digvesh Rathi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Himmat Singh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Manimaran Siddharth</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Matthew Breetzke</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mayank Yadav</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Md Shami</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mitchell Marsh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3.4cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mohsin Khan</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nicholas Pooran</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Prince Yadav</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rishabh Pant</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shahbaz Ahmed</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>102.05cr</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>22.95cr</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -880,13 +4114,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -904,6 +4143,388 @@
           <t>Type</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Allah Ghazanfar</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4.8cr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ashwani Kumar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Corbin Bosch</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Deepak Chahar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.25cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hardik Pandya</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.35cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mayank Markande</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mitchell Santner</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Naman Dhir</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5.25cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Raghu Sharma</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Raj Angad Bawa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Robin Minz</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>65L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ryan Rickelton</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shardul Thakur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sherfane Rutherford</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Suryakumar Yadav</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16.35cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tilak Varma</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trent Boult</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Will Jacks</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5.25cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>122.25cr</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>2.75cr</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -10,16 +10,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auction Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Summary" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unsold Players" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSK" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GT" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KKR" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LSG" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MI" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBKS" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RR" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SRH" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trade History" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSK" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GT" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KKR" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LSG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MI" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBKS" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCB" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RR" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SRH" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45,7 +46,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +57,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007030A0"/>
+        <bgColor rgb="007030A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,12 +84,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -448,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +485,50 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:42:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Prithvi Shaw</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.5cr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:45:28</t>
         </is>
       </c>
     </row>
@@ -522,29 +576,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arshdeep Singh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azmatullah Omarzai</t>
+          <t>Allah Ghazanfar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.4cr</t>
+          <t>4.8cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -556,7 +602,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Harnoor Pannu</t>
+          <t>Ashwani Kumar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -573,12 +619,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Harpreet Brar</t>
+          <t>Corbin Bosch</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,12 +636,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lockie Ferguson</t>
+          <t>Deepak Chahar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>9.25cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +653,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marco Jansen</t>
+          <t>Hardik Pandya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7cr</t>
+          <t>16.35cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -624,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marcus Stoinis</t>
+          <t>Mayank Markande</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -641,12 +687,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mitch Owen</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -658,12 +704,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Musheer Khan</t>
+          <t>Naman Dhir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>5.25cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -675,12 +721,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nehal Wadhera</t>
+          <t>Raghu Sharma</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.2cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -692,12 +738,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Prabhsimran Singh</t>
+          <t>Raj Angad Bawa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -709,12 +755,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Priyansh Arya</t>
+          <t>Robin Minz</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.8cr</t>
+          <t>65L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -726,12 +772,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pyla Avinash</t>
+          <t>Shardul Thakur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -743,12 +789,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shashank Singh</t>
+          <t>Sherfane Rutherford</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.5cr</t>
+          <t>2.6cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -760,12 +806,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shreyas Iyer</t>
+          <t>Tilak Varma</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26.75cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -777,12 +823,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Suryansh Shedge</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>12.5cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -794,12 +840,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vishnu Vinod</t>
+          <t>Will Jacks</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>95L</t>
+          <t>5.25cr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -811,12 +857,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Vyshak Vijaykumar</t>
+          <t>Suryakumar Yadav</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.8cr</t>
+          <t>16.35cr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -828,12 +874,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xavier Bartlett</t>
+          <t>Ryan Rickelton</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>80L</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -845,78 +891,70 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Yash Thakur</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.6cr</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Traded ---</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Yuzvendra Chahal</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18cr</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>Traded</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
+      <c r="B24" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>113.5cr</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>92.15cr</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>11.5cr</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>12.85cr</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -924,6 +962,862 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arshdeep Singh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Azmatullah Omarzai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Harnoor Pannu</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Harpreet Brar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lockie Ferguson</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marco Jansen</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marcus Stoinis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mitch Owen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Musheer Khan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nehal Wadhera</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Prabhsimran Singh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Priyansh Arya</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3.8cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pyla Avinash</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shashank Singh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.5cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shreyas Iyer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26.75cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Suryansh Shedge</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Vishnu Vinod</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>95L</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Vyshak Vijaykumar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.8cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Xavier Bartlett</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>80L</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Yash Thakur</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.6cr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Yuzvendra Chahal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>113.5cr</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abhinandan Singh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bhuvneshwar Kumar</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Devdutt Padikkal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jacob Bethell</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jitesh Sharma</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Josh Hazlewood</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Krunal Pandya</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.75cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nuwan Thushara</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.6cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Phil Salt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rajat Patidar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rasikh Dar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Romario Shepherd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Suyash Sharma</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Swapnil Singh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tim David</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Virat Kohli</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>--- Bought ---</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>David Miller</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>111.2cr</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>13.8cr</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -962,29 +1856,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abhinandan Singh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bhuvneshwar Kumar</t>
+          <t>Dhruv Jurel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.75cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -996,12 +1882,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Devdutt Padikkal</t>
+          <t>Donovan Ferreira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1013,12 +1899,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jacob Bethell</t>
+          <t>Jofra Archer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>12.5cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1030,12 +1916,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jitesh Sharma</t>
+          <t>Kwena Maphaka</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>1.5cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1047,12 +1933,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Lhuan-Dre Pretorious</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1064,12 +1950,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Krunal Pandya</t>
+          <t>Nandre Burger</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.75cr</t>
+          <t>3.5cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1081,12 +1967,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nuwan Thushara</t>
+          <t>Ravindra Jadeja</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.6cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1098,12 +1984,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phil Salt</t>
+          <t>Riyan Parag</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11.5cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1115,12 +2001,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rajat Patidar</t>
+          <t>Sam Curran</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>2.4cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1132,12 +2018,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rasikh Dar</t>
+          <t>Sandeep Sharma</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1149,12 +2035,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romario Shepherd</t>
+          <t>Shimron Hetmyer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>11cr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1166,12 +2052,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suyash Sharma</t>
+          <t>Shubham Dubey</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>80L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1183,12 +2069,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swapnil Singh</t>
+          <t>Tushar Deshpande</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>50L</t>
+          <t>6.5cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1200,12 +2086,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tim David</t>
+          <t>Vaibhav Suryavanshi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3cr</t>
+          <t>1.1cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1217,12 +2103,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Yashaswi Jaiswal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1234,12 +2120,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Yash Dayal</t>
+          <t>Yudhvir Charak</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5cr</t>
+          <t>35L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1249,53 +2135,53 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
+      <c r="B20" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>108.6cr</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>104.95cr</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>16.4cr</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>16.05cr</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,29 +2220,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dhruv Jurel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Donovan Ferreira</t>
+          <t>Abhishek Sharma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1368,12 +2246,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jofra Archer</t>
+          <t>Aniket Verma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1385,12 +2263,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kwena Maphaka</t>
+          <t>Brydon Carse</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1402,12 +2280,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lhuan-Dre Pretorious</t>
+          <t>Eshan Malinga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>1.2cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1419,12 +2297,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nandre Burger</t>
+          <t>Harsh Dubey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1436,12 +2314,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ravindra Jadeja</t>
+          <t>Harshal Patel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1453,12 +2331,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Riyan Parag</t>
+          <t>Heinrich Klaasen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14cr</t>
+          <t>23cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1470,12 +2348,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sam Curran</t>
+          <t>Ishan Kishan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.4cr</t>
+          <t>11.25cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1487,12 +2365,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sandeep Sharma</t>
+          <t>Jaydev Unadkat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1504,12 +2382,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shimron Hetmyer</t>
+          <t>Kamindu Mendis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1521,12 +2399,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shubham Dubey</t>
+          <t>Nitish Kumar Reddy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>80L</t>
+          <t>6cr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1538,12 +2416,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tushar Deshpande</t>
+          <t>Pat Cummins</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6.5cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1555,12 +2433,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vaibhav Suryavanshi</t>
+          <t>Smaran Ravichandaran</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.1cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1572,12 +2450,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yashaswi Jaiswal</t>
+          <t>Travis Head</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1589,12 +2467,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yudhvir Charak</t>
+          <t>Zeeshan Ansari</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>35L</t>
+          <t>40L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1604,384 +2482,46 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
+      <c r="B19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>104.95cr</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>99.5cr</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>16.05cr</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Abhishek Sharma</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aniket Verma</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Brydon Carse</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Eshan Malinga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.2cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Harsh Dubey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Harshal Patel</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Heinrich Klaasen</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ishan Kishan</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11.25cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jaydev Unadkat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Kamindu Mendis</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nitish Kumar Reddy</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Pat Cummins</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Smaran Ravichandaran</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Travis Head</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Zeeshan Ansari</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>99.5cr</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>25.5cr</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2031,16 +2571,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>79.6cr</t>
+          <t>95.9cr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.4cr</t>
+          <t>27.1cr</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2595,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>99.95cr</t>
+          <t>97.75cr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.8cr</t>
+          <t>28cr</t>
         </is>
       </c>
     </row>
@@ -2091,16 +2631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>54.7cr</t>
+          <t>60.2cr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64.3cr</t>
+          <t>58.8cr</t>
         </is>
       </c>
     </row>
@@ -2131,16 +2671,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>122.25cr</t>
+          <t>92.15cr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.75cr</t>
+          <t>12.85cr</t>
         </is>
       </c>
     </row>
@@ -2171,16 +2711,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>108.6cr</t>
+          <t>111.2cr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.4cr</t>
+          <t>13.8cr</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2257,6 +2797,57 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Base Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Faf Du Plessis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BA1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jake Fraser-Mcgurk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BA1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mayank Agarawal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BA1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1cr</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2279,341 +2870,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Player Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From Team</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To Team</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Trade Price/Salary</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Original Price</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Trade Type</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Swap Player</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Swap Player Salary</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anshul Kamboj</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.4cr</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nitish Rana</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4cr (MI_pays)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-12-01 14:06:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gurjapneet Singh</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.2cr</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4cr (MI_pays)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-12-01 14:06:22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jamie Overton</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>CSK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:50:21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MS Dhoni</t>
+          <t>Rohit Sharma</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:50:21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mukesh Choudhary</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Nathan Ellis</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>2cr</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Noor Ahmad</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ramakrishna Ghosh</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sanju Samson</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>18cr</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ruturaj Gaikwad</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Shivam Dube</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Shreyas Gopal</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Syed Khaleel Ahmed</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4.8cr</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ayush Mhatre</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Dewald Brevis</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2.2cr</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Urvil Patel</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>79.6cr</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>43.4cr</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:49:27</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2621,1088 +3200,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Abhishek Porel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ajay Mandal</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ashutosh Sharma</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.8cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Axar Patel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16.5cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dushmantha Chameera</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Karun Nair</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>50L</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KL Rahul</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kuldeep Yadav</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>13.25cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Madhav Tiwari</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mitchell Starc</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11.75cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mukesh Kumar</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nitish Rana</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4.2cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sameer Rizvi</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>95L</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>T. Natarajan</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10.75cr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Tripurana Vijay</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tristan Stubbs</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10cr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Vipraj Nigam</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>50L</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>99.95cr</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>21.8cr</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anuj Rawat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Glenn Phillips</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2cr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gurnoor Singh Brar</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.3cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ishant Sharma</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jayant Yadav</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jos Buttler</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15.75cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kagiso Rabada</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10.75cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kumar Kushagra</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>65L</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Manav Suthar</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mohammad Siraj</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12.25cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mohd. Arshad Khan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.3cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nishant Sindhu</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Prasidh Krishna</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>9.5cr</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>R. Sai Kishore</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2cr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rahul Tewatia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rashid Khan</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sai Sudharsan</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>8.5cr</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Shahrukh Khan</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Shubman Gill</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>16.5cr</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Washington Sundar</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3.2cr</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>112.1cr</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>12.9cr</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ajinkya Rahane</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.5cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Angkrish Raghuvanshi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3cr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Anukul Roy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Harshit Rana</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Manish Pandey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ramandeep Singh</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rinku Singh</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>13cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rovman Powell</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1.5cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sunil Narine</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Umran Malik</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Vaibhav Arora</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.8cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Varun Chakaravarthy</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>54.7cr</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>64.3cr</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3741,29 +3238,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abdul Samad</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4.2cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Anshul Kamboj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>3.4cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3775,7 +3264,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akash Singh</t>
+          <t>Ayush Mhatre</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3792,12 +3281,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arjun Tendulkar</t>
+          <t>Jamie Overton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>1.5cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3809,7 +3298,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arshin Kulkarni</t>
+          <t>Mukesh Choudhary</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3826,12 +3315,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>Nathan Ellis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.75cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3843,12 +3332,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ayush Badoni</t>
+          <t>Noor Ahmad</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>10cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3860,7 +3349,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Digvesh Rathi</t>
+          <t>Ramakrishna Ghosh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3877,12 +3366,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Himmat Singh</t>
+          <t>Ruturaj Gaikwad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3894,12 +3383,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Manimaran Siddharth</t>
+          <t>Sanju Samson</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3911,12 +3400,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Matthew Breetzke</t>
+          <t>Shreyas Gopal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3928,12 +3417,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mayank Yadav</t>
+          <t>Urvil Patel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3945,12 +3434,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Md Shami</t>
+          <t>Dewald Brevis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10cr</t>
+          <t>2.2cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3962,12 +3451,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>MS Dhoni</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.4cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3979,12 +3468,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mohsin Khan</t>
+          <t>Shivam Dube</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>12cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3996,12 +3485,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nicholas Pooran</t>
+          <t>Syed Khaleel Ahmed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21cr</t>
+          <t>4.8cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4013,12 +3502,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prince Yadav</t>
+          <t>Gurjapneet Singh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>2.2cr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4030,78 +3519,1214 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rishabh Pant</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>27cr</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Traded ---</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shahbaz Ahmed</t>
+          <t>Rohit Sharma</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.4cr</t>
+          <t>16.3cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>Traded</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
+      <c r="B22" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>102.05cr</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>95.9cr</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>22.95cr</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>27.1cr</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abhishek Porel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ajay Mandal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ashutosh Sharma</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.8cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Axar Patel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.5cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dushmantha Chameera</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Karun Nair</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KL Rahul</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kuldeep Yadav</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13.25cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Madhav Tiwari</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mukesh Kumar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sameer Rizvi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>95L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>T. Natarajan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tripurana Vijay</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tristan Stubbs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Vipraj Nigam</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mitchell Starc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11.75cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>--- Traded ---</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Traded</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>97.75cr</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>28cr</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anuj Rawat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Glenn Phillips</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gurnoor Singh Brar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ishant Sharma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jayant Yadav</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jos Buttler</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15.75cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kagiso Rabada</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kumar Kushagra</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>65L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Manav Suthar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mohammad Siraj</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12.25cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mohd. Arshad Khan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nishant Sindhu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Prasidh Krishna</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.5cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R. Sai Kishore</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rahul Tewatia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sai Sudharsan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.5cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shubman Gill</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16.5cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Washington Sundar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3.2cr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>112.1cr</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>12.9cr</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ajinkya Rahane</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Angkrish Raghuvanshi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Anukul Roy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manish Pandey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ramandeep Singh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rinku Singh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rovman Powell</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sunil Narine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Umran Malik</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vaibhav Arora</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.8cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Varun Chakaravarthy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Harshit Rana</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>--- Bought ---</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prithvi Shaw</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.5cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>60.2cr</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>58.8cr</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4147,29 +4772,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Allah Ghazanfar</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4.8cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ashwani Kumar</t>
+          <t>Abdul Samad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4181,12 +4798,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Corbin Bosch</t>
+          <t>Aiden Markram</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4198,12 +4815,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Deepak Chahar</t>
+          <t>Akash Singh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9.25cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4215,12 +4832,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hardik Pandya</t>
+          <t>Arjun Tendulkar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.35cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4232,12 +4849,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Arshin Kulkarni</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4249,12 +4866,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mayank Markande</t>
+          <t>Avesh Khan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>9.75cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4266,12 +4883,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Ayush Badoni</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4283,12 +4900,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Naman Dhir</t>
+          <t>Digvesh Rathi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.25cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4300,7 +4917,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raghu Sharma</t>
+          <t>Himmat Singh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4317,12 +4934,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raj Angad Bawa</t>
+          <t>Manimaran Siddharth</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4334,12 +4951,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Robin Minz</t>
+          <t>Matthew Breetzke</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>65L</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4351,12 +4968,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rohit Sharma</t>
+          <t>Mayank Yadav</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16.3cr</t>
+          <t>11cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4368,12 +4985,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ryan Rickelton</t>
+          <t>Md Shami</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1cr</t>
+          <t>10cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4385,12 +5002,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shardul Thakur</t>
+          <t>Mitchell Marsh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>3.4cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4402,12 +5019,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sherfane Rutherford</t>
+          <t>Mohsin Khan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4419,12 +5036,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Suryakumar Yadav</t>
+          <t>Nicholas Pooran</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16.35cr</t>
+          <t>21cr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4436,12 +5053,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tilak Varma</t>
+          <t>Prince Yadav</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4453,12 +5070,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Rishabh Pant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>27cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4470,12 +5087,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Will Jacks</t>
+          <t>Shahbaz Ahmed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5.25cr</t>
+          <t>2.4cr</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4485,46 +5102,46 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
+      <c r="B23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>122.25cr</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>102.05cr</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>2.75cr</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>22.95cr</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -543,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,12 +806,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tilak Varma</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8cr</t>
+          <t>12.5cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Will Jacks</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>5.25cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -840,12 +840,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Will Jacks</t>
+          <t>Suryakumar Yadav</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.25cr</t>
+          <t>16.35cr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -857,12 +857,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Suryakumar Yadav</t>
+          <t>Ryan Rickelton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16.35cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -874,12 +874,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ryan Rickelton</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -915,46 +915,63 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Traded</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>92.15cr</t>
-        </is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>86.15cr</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>12.85cr</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>18.85cr</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2595,12 +2612,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>97.75cr</t>
+          <t>103.75cr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28cr</t>
+          <t>22cr</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2692,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92.15cr</t>
+          <t>86.15cr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.85cr</t>
+          <t>18.85cr</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,59 +2954,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Tilak Varma</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8cr</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Jasprit Bumrah</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2cr</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2cr</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SWAP</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Nitish Rana</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4.2cr</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4cr (MI_pays)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-12-01 14:06:22</t>
+          <t>2025-12-01 14:33:17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nitish Rana</t>
+          <t>Jasprit Bumrah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3004,12 +3021,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.2cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.2cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3019,22 +3036,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Tilak Varma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4cr (MI_pays)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-12-01 14:06:22</t>
+          <t>2025-12-01 14:33:17</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3063,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSK</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3071,49 +3088,49 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rohit Sharma</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.3cr</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4cr (MI_pays)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-12-01 13:50:21</t>
+          <t>2025-12-01 14:06:22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rohit Sharma</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CSK</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.3cr</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.3cr</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3133,12 +3150,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4cr (MI_pays)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-12-01 13:50:21</t>
+          <t>2025-12-01 14:06:22</t>
         </is>
       </c>
     </row>
@@ -3150,45 +3167,149 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:50:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>CSK</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16.3cr</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2cr</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:50:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jasprit Bumrah</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>18cr</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CASH</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2025-12-01 13:49:27</t>
         </is>
@@ -3918,12 +4039,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Tilak Varma</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3956,7 +4077,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>97.75cr</t>
+          <t>103.75cr</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -3969,7 +4090,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>28cr</t>
+          <t>22cr</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -21,6 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCB" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RR" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SRH" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Released Players" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,7 +47,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -63,6 +64,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="007030A0"/>
         <bgColor rgb="007030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C00000"/>
+        <bgColor rgb="00C00000"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -92,7 +99,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -499,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,29 +542,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Allah Ghazanfar</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4.8cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Corbin Bosch</t>
+          <t>✈️ Allah Ghazanfar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>4.8cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -566,12 +568,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Deepak Chahar</t>
+          <t>✈️ Corbin Bosch</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9.25cr</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,12 +585,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mayank Markande</t>
+          <t>Deepak Chahar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>9.25cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +602,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Mayank Markande</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,12 +619,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Raghu Sharma</t>
+          <t>✈️ Mitchell Santner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Raj Angad Bawa</t>
+          <t>Raghu Sharma</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -651,12 +653,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Robin Minz</t>
+          <t>Raj Angad Bawa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>65L</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -668,12 +670,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shardul Thakur</t>
+          <t>Robin Minz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>65L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -685,12 +687,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sherfane Rutherford</t>
+          <t>Shardul Thakur</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -702,12 +704,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>✈️ Sherfane Rutherford</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>2.6cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -719,12 +721,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ryan Rickelton</t>
+          <t>✈️ Trent Boult</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1cr</t>
+          <t>12.5cr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -736,12 +738,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tilak Varma</t>
+          <t>✈️ Ryan Rickelton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -753,12 +755,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ashwani Kumar</t>
+          <t>Tilak Varma</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -770,12 +772,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Naman Dhir</t>
+          <t>Ashwani Kumar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.25cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -787,7 +789,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Will Jacks</t>
+          <t>Naman Dhir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -870,46 +872,74 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>✈️ Will Jacks</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5.25cr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>122.25cr</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>2.75cr</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -955,29 +985,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arshdeep Singh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lockie Ferguson</t>
+          <t>Arshdeep Singh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -989,12 +1011,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marco Jansen</t>
+          <t>✈️ Lockie Ferguson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1006,7 +1028,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marcus Stoinis</t>
+          <t>✈️ Marcus Stoinis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1023,12 +1045,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mitch Owen</t>
+          <t>Prabhsimran Singh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1040,12 +1062,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prabhsimran Singh</t>
+          <t>Priyansh Arya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>3.8cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1057,12 +1079,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Priyansh Arya</t>
+          <t>Shashank Singh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3.8cr</t>
+          <t>5.5cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1074,12 +1096,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shashank Singh</t>
+          <t>Vishnu Vinod</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.5cr</t>
+          <t>95L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1091,12 +1113,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vishnu Vinod</t>
+          <t>Vyshak Vijaykumar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>95L</t>
+          <t>1.8cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1108,12 +1130,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vyshak Vijaykumar</t>
+          <t>✈️ Xavier Bartlett</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.8cr</t>
+          <t>80L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1125,12 +1147,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xavier Bartlett</t>
+          <t>Yash Thakur</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80L</t>
+          <t>1.6cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1142,12 +1164,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Yash Thakur</t>
+          <t>Shreyas Iyer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.6cr</t>
+          <t>26.75cr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1159,12 +1181,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shreyas Iyer</t>
+          <t>Harnoor Pannu</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26.75cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1176,7 +1198,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Harnoor Pannu</t>
+          <t>Pyla Avinash</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1193,12 +1215,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pyla Avinash</t>
+          <t>✈️ Azmatullah Omarzai</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>2.4cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1210,12 +1232,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Azmatullah Omarzai</t>
+          <t>Harpreet Brar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.4cr</t>
+          <t>1.5cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1227,12 +1249,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Harpreet Brar</t>
+          <t>Musheer Khan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1244,12 +1266,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Musheer Khan</t>
+          <t>Nehal Wadhera</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>4.2cr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1261,12 +1283,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nehal Wadhera</t>
+          <t>Suryansh Shedge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.2cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1278,12 +1300,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Suryansh Shedge</t>
+          <t>Yuzvendra Chahal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,63 +1315,57 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Yuzvendra Chahal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>113.5cr</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>103.5cr</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>11.5cr</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>20.5cr</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1357,6 +1373,782 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bhuvneshwar Kumar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Devdutt Padikkal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>✈️ Jacob Bethell</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jitesh Sharma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>✈️ Josh Hazlewood</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Krunal Pandya</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.75cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>✈️ Nuwan Thushara</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.6cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>✈️ Phil Salt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11.5cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rajat Patidar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rasikh Dar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Suyash Sharma</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.6cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Abhinandan Singh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Swapnil Singh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>✈️ Tim David</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Virat Kohli</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>--- Traded ---</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shivam Dube</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Traded</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>119.1cr</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>5.9cr</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dhruv Jurel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>✈️ Donovan Ferreira</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>✈️ Jofra Archer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12.5cr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>✈️ Kwena Maphaka</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>✈️ Lhuan-Dre Pretorious</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>✈️ Nandre Burger</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3.5cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>✈️ Sam Curran</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sandeep Sharma</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>✈️ Shimron Hetmyer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shubham Dubey</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>80L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tushar Deshpande</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6.5cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vaibhav Suryavanshi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.1cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yashaswi Jaiswal</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yudhvir Charak</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>35L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Riyan Parag</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ravindra Jadeja</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14cr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>104.95cr</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>16.05cr</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,29 +2187,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bhuvneshwar Kumar</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10.75cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Devdutt Padikkal</t>
+          <t>Abhishek Sharma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1429,12 +2213,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jacob Bethell</t>
+          <t>Aniket Verma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1446,12 +2230,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jitesh Sharma</t>
+          <t>✈️ Eshan Malinga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>1.2cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1463,12 +2247,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Harsh Dubey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1480,12 +2264,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Krunal Pandya</t>
+          <t>✈️ Heinrich Klaasen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.75cr</t>
+          <t>23cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1497,12 +2281,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nuwan Thushara</t>
+          <t>Ishan Kishan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.6cr</t>
+          <t>11.25cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1514,12 +2298,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phil Salt</t>
+          <t>Jaydev Unadkat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11.5cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1531,12 +2315,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rajat Patidar</t>
+          <t>Nitish Kumar Reddy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>6cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1548,12 +2332,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rasikh Dar</t>
+          <t>✈️ Pat Cummins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1565,12 +2349,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romario Shepherd</t>
+          <t>✈️ Travis Head</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.5cr</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1582,12 +2366,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Suyash Sharma</t>
+          <t>✈️ Brydon Carse</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.6cr</t>
+          <t>1cr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1599,12 +2383,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Harshal Patel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1616,12 +2400,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abhinandan Singh</t>
+          <t>✈️ Kamindu Mendis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1633,12 +2417,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swapnil Singh</t>
+          <t>Smaran Ravichandaran</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>50L</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1650,12 +2434,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yash Dayal</t>
+          <t>Zeeshan Ansari</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5cr</t>
+          <t>40L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1665,756 +2449,110 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tim David</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3cr</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>108.6cr</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>99.5cr</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>16.4cr</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>25.5cr</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Released Info</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dhruv Jurel</t>
+          <t>Marco Jansen (RELEASED from PBKS)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14cr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Donovan Ferreira</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1cr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jofra Archer</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12.5cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kwena Maphaka</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.5cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lhuan-Dre Pretorious</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Nandre Burger</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3.5cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sam Curran</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2.4cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sandeep Sharma</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Shimron Hetmyer</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Shubham Dubey</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>80L</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Tushar Deshpande</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6.5cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Vaibhav Suryavanshi</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1.1cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Yashaswi Jaiswal</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yudhvir Charak</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>35L</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ravindra Jadeja</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Riyan Parag</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>104.95cr</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>16.05cr</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Abhishek Sharma</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aniket Verma</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eshan Malinga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.2cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Harsh Dubey</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Heinrich Klaasen</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>23cr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ishan Kishan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11.25cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jaydev Unadkat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nitish Kumar Reddy</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pat Cummins</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Travis Head</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brydon Carse</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Harshal Patel</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>8cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kamindu Mendis</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Smaran Ravichandaran</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Zeeshan Ansari</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>99.5cr</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>25.5cr</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
+          <t>7cr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2427,7 +2565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,15 +2581,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Players Bought</t>
+          <t>Players</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Remaining Purse</t>
         </is>
@@ -2464,16 +2607,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>79.6cr</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.4cr</t>
+          <t>71.1cr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.9cr</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2632,15 @@
       <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>99.95cr</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>21.8cr</t>
         </is>
@@ -2506,12 +2655,15 @@
       <c r="B4" t="n">
         <v>20</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>112.1cr</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.9cr</t>
         </is>
@@ -2526,12 +2678,15 @@
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>54.7cr</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>64.3cr</t>
         </is>
@@ -2546,12 +2701,15 @@
       <c r="B6" t="n">
         <v>19</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>102.05cr</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>22.95cr</t>
         </is>
@@ -2566,12 +2724,15 @@
       <c r="B7" t="n">
         <v>20</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>122.25cr</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2.75cr</t>
         </is>
@@ -2584,16 +2745,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>113.5cr</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.5cr</t>
+          <t>103.5cr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.5cr</t>
         </is>
       </c>
     </row>
@@ -2606,14 +2770,17 @@
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>108.6cr</t>
-        </is>
+      <c r="C9" t="n">
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.4cr</t>
+          <t>119.1cr</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.9cr</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2793,15 @@
       <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>104.95cr</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>16.05cr</t>
         </is>
@@ -2646,12 +2816,15 @@
       <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>99.5cr</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>25.5cr</t>
         </is>
@@ -2704,58 +2877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>From Team</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>To Team</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Trade Price</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Original Price</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2763,720 +2885,232 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Player Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From Team</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To Team</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Trade Price/Salary</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Original Price</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Trade Type</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Swap Player</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Swap Player Salary</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Compensation</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anshul Kamboj</t>
+          <t>Romario Shepherd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.4cr</t>
+          <t>RCB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Shivam Dube</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-12-04 14:57:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamie Overton</t>
+          <t>Shivam Dube</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SWAP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Romario Shepherd</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>1.5cr</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-12-04 14:57:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mukesh Choudhary</t>
+          <t>Mitch Owen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>PBKS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nathan Ellis</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>2cr</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Noor Ahmad</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10cr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sanju Samson</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shreyas Gopal</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Urvil Patel</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Shivam Dube</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Syed Khaleel Ahmed</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4.8cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gurjapneet Singh</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2.2cr</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ayush Mhatre</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ramakrishna Ghosh</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MS Dhoni</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ruturaj Gaikwad</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Dewald Brevis</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2.2cr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>79.6cr</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>43.4cr</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-12-04 14:56:58</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Abhishek Porel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ajay Mandal</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ashutosh Sharma</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.8cr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Axar Patel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16.5cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dushmantha Chameera</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Karun Nair</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>50L</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KL Rahul</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kuldeep Yadav</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>13.25cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Madhav Tiwari</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mukesh Kumar</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8cr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sameer Rizvi</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>95L</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>T. Natarajan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10.75cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Tripurana Vijay</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30L</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Tristan Stubbs</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10cr</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Vipraj Nigam</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>50L</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mitchell Starc</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>11.75cr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Nitish Rana</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4.2cr</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>99.95cr</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>21.8cr</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3515,29 +3149,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Glenn Phillips</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ishant Sharma</t>
+          <t>Anshul Kamboj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>3.4cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3549,12 +3175,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jayant Yadav</t>
+          <t>✈️ Jamie Overton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>1.5cr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3566,12 +3192,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kumar Kushagra</t>
+          <t>Mukesh Choudhary</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>65L</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3583,12 +3209,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manav Suthar</t>
+          <t>✈️ Nathan Ellis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3600,12 +3226,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mohammad Siraj</t>
+          <t>✈️ Noor Ahmad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.25cr</t>
+          <t>10cr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3617,12 +3243,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mohd. Arshad Khan</t>
+          <t>Sanju Samson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.3cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3634,7 +3260,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nishant Sindhu</t>
+          <t>Shreyas Gopal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3651,12 +3277,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prasidh Krishna</t>
+          <t>Urvil Patel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3668,12 +3294,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R. Sai Kishore</t>
+          <t>Syed Khaleel Ahmed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>4.8cr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3685,12 +3311,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rahul Tewatia</t>
+          <t>Gurjapneet Singh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>2.2cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3702,12 +3328,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sai Sudharsan</t>
+          <t>Ayush Mhatre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8.5cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3719,12 +3345,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shahrukh Khan</t>
+          <t>Ramakrishna Ghosh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3736,12 +3362,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>✈️ Dewald Brevis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16.5cr</t>
+          <t>2.2cr</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3753,12 +3379,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Washington Sundar</t>
+          <t>Ruturaj Gaikwad</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.2cr</t>
+          <t>18cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3770,12 +3396,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anuj Rawat</t>
+          <t>MS Dhoni</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3787,406 +3413,105 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gurnoor Singh Brar</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1.3cr</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Traded ---</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>✈️ Mitch Owen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15.75cr</t>
+          <t>2cr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>Traded</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>✈️ Romario Shepherd</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10.75cr</t>
+          <t>1.5cr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t>Traded</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Rashid Khan</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>18cr</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>112.1cr</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>71.1cr</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>12.9cr</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>51.9cr</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ajinkya Rahane</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.5cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Angkrish Raghuvanshi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3cr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manish Pandey</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ramandeep Singh</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rinku Singh</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>13cr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rovman Powell</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.5cr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Vaibhav Arora</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.8cr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Varun Chakaravarthy</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Harshit Rana</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4cr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Umran Malik</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>75L</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Anukul Roy</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>40L</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sunil Narine</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12cr</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Total Players</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>54.7cr</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Purse Remaining</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>64.3cr</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4225,29 +3550,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abdul Samad</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4.2cr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Abhishek Porel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2cr</t>
+          <t>4cr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4259,7 +3576,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akash Singh</t>
+          <t>Ajay Mandal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4276,12 +3593,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arshin Kulkarni</t>
+          <t>Ashutosh Sharma</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>3.8cr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4293,12 +3610,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>Axar Patel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.75cr</t>
+          <t>16.5cr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4310,12 +3627,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ayush Badoni</t>
+          <t>✈️ Dushmantha Chameera</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>75L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4327,12 +3644,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Digvesh Rathi</t>
+          <t>Karun Nair</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>50L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4344,12 +3661,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Himmat Singh</t>
+          <t>KL Rahul</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>14cr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4361,12 +3678,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Manimaran Siddharth</t>
+          <t>Kuldeep Yadav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>13.25cr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4378,12 +3695,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matthew Breetzke</t>
+          <t>Madhav Tiwari</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>75L</t>
+          <t>40L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4395,12 +3712,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mayank Yadav</t>
+          <t>Mukesh Kumar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11cr</t>
+          <t>8cr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4412,12 +3729,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Md Shami</t>
+          <t>Sameer Rizvi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10cr</t>
+          <t>95L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4429,12 +3746,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>T. Natarajan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.4cr</t>
+          <t>10.75cr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4446,12 +3763,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mohsin Khan</t>
+          <t>Tripurana Vijay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4cr</t>
+          <t>30L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4463,12 +3780,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicholas Pooran</t>
+          <t>✈️ Tristan Stubbs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21cr</t>
+          <t>10cr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4480,12 +3797,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prince Yadav</t>
+          <t>Vipraj Nigam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30L</t>
+          <t>50L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4497,12 +3814,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rishabh Pant</t>
+          <t>✈️ Mitchell Starc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27cr</t>
+          <t>11.75cr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4514,12 +3831,404 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shahbaz Ahmed</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.4cr</t>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>99.95cr</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>21.8cr</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>✈️ Glenn Phillips</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ishant Sharma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jayant Yadav</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kumar Kushagra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>65L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Manav Suthar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mohammad Siraj</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.25cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mohd. Arshad Khan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nishant Sindhu</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Prasidh Krishna</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.5cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R. Sai Kishore</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rahul Tewatia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sai Sudharsan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8.5cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shubman Gill</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16.5cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Washington Sundar</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3.2cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anuj Rawat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gurnoor Singh Brar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.3cr</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4531,61 +4240,839 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>✈️ Jos Buttler</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15.75cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>✈️ Kagiso Rabada</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10.75cr</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>✈️ Rashid Khan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18cr</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>112.1cr</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>12.9cr</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ajinkya Rahane</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Angkrish Raghuvanshi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Manish Pandey</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ramandeep Singh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rinku Singh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>✈️ Rovman Powell</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.5cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Vaibhav Arora</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.8cr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Varun Chakaravarthy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harshit Rana</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Umran Malik</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anukul Roy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40L</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>✈️ Sunil Narine</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Total Players</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Total Spent</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>54.7cr</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Purse Remaining</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>64.3cr</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>--- Retained ---</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abdul Samad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4.2cr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>✈️ Aiden Markram</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2cr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Akash Singh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arshin Kulkarni</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Avesh Khan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.75cr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ayush Badoni</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Digvesh Rathi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Himmat Singh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Manimaran Siddharth</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>✈️ Matthew Breetzke</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>75L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mayank Yadav</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11cr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Md Shami</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10cr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>✈️ Mitchell Marsh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3.4cr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mohsin Khan</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4cr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>✈️ Nicholas Pooran</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21cr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Prince Yadav</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rishabh Pant</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27cr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shahbaz Ahmed</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.4cr</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Arjun Tendulkar</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>30L</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Retained</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Retained</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Total Players</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Overseas Players</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Total Spent</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>102.05cr</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Purse Remaining</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>22.95cr</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
